--- a/MEDIA/3013_拉亞直營營業額(2020-05-01~2020-05-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-05-01~2020-05-31).xlsx
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21830</v>
+        <v>25161</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>5605</v>
+        <v>10475</v>
       </c>
       <c r="G3" t="n">
-        <v>25.7</v>
+        <v>41.6</v>
       </c>
       <c r="H3" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I3" t="n">
-        <v>7345</v>
+        <v>7910</v>
       </c>
       <c r="J3" t="n">
-        <v>33.6</v>
+        <v>31.4</v>
       </c>
       <c r="K3" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>4115</v>
+        <v>3771</v>
       </c>
       <c r="M3" t="n">
-        <v>18.9</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,37 +553,37 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1780</v>
+        <v>525</v>
       </c>
       <c r="S3" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1465</v>
+        <v>2480</v>
       </c>
       <c r="V3" t="n">
-        <v>6.7</v>
+        <v>9.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AA3" t="n">
         <v>152</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -599,80 +599,80 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27005</v>
+        <v>29325</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>4805</v>
+        <v>12780</v>
       </c>
       <c r="G4" t="n">
-        <v>17.8</v>
+        <v>43.6</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I4" t="n">
-        <v>7260</v>
+        <v>10114</v>
       </c>
       <c r="J4" t="n">
-        <v>26.9</v>
+        <v>34.5</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>6800</v>
+        <v>3016</v>
       </c>
       <c r="M4" t="n">
-        <v>25.2</v>
+        <v>10.3</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>2145</v>
+        <v>2010</v>
       </c>
       <c r="S4" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>3230</v>
+        <v>1405</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28800</v>
+        <v>30130</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>6440</v>
+        <v>9500</v>
       </c>
       <c r="G5" t="n">
-        <v>22.4</v>
+        <v>31.5</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I5" t="n">
-        <v>5680</v>
+        <v>12445</v>
       </c>
       <c r="J5" t="n">
-        <v>19.7</v>
+        <v>41.3</v>
       </c>
       <c r="K5" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>6765</v>
+        <v>6290</v>
       </c>
       <c r="M5" t="n">
-        <v>23.5</v>
+        <v>20.9</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>4365</v>
+        <v>1895</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>6.3</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="AA5" t="n">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
@@ -777,80 +777,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17400</v>
+        <v>26260</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>1525</v>
+        <v>9990</v>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I6" t="n">
-        <v>5400</v>
+        <v>7725</v>
       </c>
       <c r="J6" t="n">
-        <v>31</v>
+        <v>29.4</v>
       </c>
       <c r="K6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
-        <v>3945</v>
+        <v>5240</v>
       </c>
       <c r="M6" t="n">
-        <v>22.7</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2430</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1120</v>
+        <v>465</v>
       </c>
       <c r="S6" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>2345</v>
+        <v>410</v>
       </c>
       <c r="V6" t="n">
-        <v>13.5</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3065</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="AA6" t="n">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13805</v>
+        <v>20615</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F7" t="n">
-        <v>980</v>
+        <v>9545</v>
       </c>
       <c r="G7" t="n">
-        <v>7.1</v>
+        <v>46.3</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I7" t="n">
-        <v>3045</v>
+        <v>6385</v>
       </c>
       <c r="J7" t="n">
-        <v>22.1</v>
+        <v>31</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>4090</v>
+        <v>3345</v>
       </c>
       <c r="M7" t="n">
-        <v>29.6</v>
+        <v>16.2</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,37 +909,37 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>2195</v>
+        <v>665</v>
       </c>
       <c r="S7" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="V7" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2835</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="AA7" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -955,80 +955,80 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16610</v>
+        <v>29747</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>1690</v>
+        <v>8875</v>
       </c>
       <c r="G8" t="n">
-        <v>10.2</v>
+        <v>29.8</v>
       </c>
       <c r="H8" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>3630</v>
+        <v>6340</v>
       </c>
       <c r="J8" t="n">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="K8" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L8" t="n">
-        <v>4765</v>
+        <v>7662</v>
       </c>
       <c r="M8" t="n">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>5310</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1495</v>
+        <v>975</v>
       </c>
       <c r="S8" t="n">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>805</v>
+        <v>585</v>
       </c>
       <c r="V8" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4225</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.4</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="AA8" t="n">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16775</v>
+        <v>23920</v>
       </c>
       <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10150</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>73</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7251</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K9" t="n">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3495</v>
-      </c>
-      <c r="J9" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31</v>
-      </c>
       <c r="L9" t="n">
-        <v>3545</v>
+        <v>4954</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,37 +1087,37 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1765</v>
+        <v>975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="V9" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4470</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="AA9" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14165</v>
+        <v>26640</v>
       </c>
       <c r="E10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>86</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7745</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>21</v>
       </c>
-      <c r="F10" t="n">
-        <v>2815</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>46</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5160</v>
-      </c>
-      <c r="J10" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33</v>
-      </c>
       <c r="L10" t="n">
-        <v>3085</v>
+        <v>6710</v>
       </c>
       <c r="M10" t="n">
-        <v>21.8</v>
+        <v>25.2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>720</v>
+        <v>395</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>795</v>
+        <v>1535</v>
       </c>
       <c r="V10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1590</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="AA10" t="n">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -1222,80 +1222,80 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28520</v>
+        <v>23650</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
-        <v>6745</v>
+        <v>9255</v>
       </c>
       <c r="G11" t="n">
-        <v>23.7</v>
+        <v>39.1</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>5630</v>
+        <v>6455</v>
       </c>
       <c r="J11" t="n">
-        <v>19.7</v>
+        <v>27.3</v>
       </c>
       <c r="K11" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>6240</v>
+        <v>6940</v>
       </c>
       <c r="M11" t="n">
-        <v>21.9</v>
+        <v>29.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>2205</v>
+        <v>1000</v>
       </c>
       <c r="S11" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4615</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28180</v>
+        <v>30145</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>4370</v>
+        <v>11750</v>
       </c>
       <c r="G12" t="n">
-        <v>15.5</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>7140</v>
+        <v>7075</v>
       </c>
       <c r="J12" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
       <c r="K12" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>6375</v>
+        <v>4755</v>
       </c>
       <c r="M12" t="n">
-        <v>22.6</v>
+        <v>15.8</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>1700</v>
+        <v>4475</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>14.8</v>
       </c>
       <c r="T12" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>6185</v>
+        <v>2090</v>
       </c>
       <c r="V12" t="n">
-        <v>21.9</v>
+        <v>6.9</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2410</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="AA12" t="n">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -1400,80 +1400,80 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22475</v>
+        <v>24550</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>3635</v>
+        <v>9325</v>
       </c>
       <c r="G13" t="n">
-        <v>16.2</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I13" t="n">
-        <v>6850</v>
+        <v>7525</v>
       </c>
       <c r="J13" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>4395</v>
+        <v>5660</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>23.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>1170</v>
+        <v>840</v>
       </c>
       <c r="S13" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="V13" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -1489,80 +1489,80 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13115</v>
+        <v>21545</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F14" t="n">
-        <v>2392</v>
+        <v>7505</v>
       </c>
       <c r="G14" t="n">
-        <v>18.2</v>
+        <v>34.8</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I14" t="n">
-        <v>3125</v>
+        <v>5080</v>
       </c>
       <c r="J14" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L14" t="n">
-        <v>3185</v>
+        <v>6845</v>
       </c>
       <c r="M14" t="n">
-        <v>24.3</v>
+        <v>31.8</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>865</v>
+        <v>520</v>
       </c>
       <c r="S14" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>420</v>
+        <v>1595</v>
       </c>
       <c r="V14" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3033</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12515</v>
+        <v>25910</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F15" t="n">
-        <v>1430</v>
+        <v>11613</v>
       </c>
       <c r="G15" t="n">
-        <v>11.4</v>
+        <v>44.8</v>
       </c>
       <c r="H15" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I15" t="n">
-        <v>3475</v>
+        <v>6505</v>
       </c>
       <c r="J15" t="n">
-        <v>27.8</v>
+        <v>25.1</v>
       </c>
       <c r="K15" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
-        <v>4050</v>
+        <v>6247</v>
       </c>
       <c r="M15" t="n">
-        <v>32.4</v>
+        <v>24.1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,37 +1621,37 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>960</v>
+        <v>210</v>
       </c>
       <c r="S15" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>430</v>
+        <v>1335</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2170</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="n">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
@@ -1667,80 +1667,80 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14300</v>
+        <v>25495</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F16" t="n">
-        <v>2120</v>
+        <v>9247</v>
       </c>
       <c r="G16" t="n">
-        <v>14.8</v>
+        <v>36.3</v>
       </c>
       <c r="H16" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I16" t="n">
-        <v>2890</v>
+        <v>13558</v>
       </c>
       <c r="J16" t="n">
-        <v>20.2</v>
+        <v>53.2</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>3855</v>
+        <v>1340</v>
       </c>
       <c r="M16" t="n">
-        <v>27</v>
+        <v>5.3</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>1185</v>
+        <v>1350</v>
       </c>
       <c r="V16" t="n">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3185</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -1756,38 +1756,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14135</v>
+        <v>28715</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F17" t="n">
-        <v>1845</v>
+        <v>10160</v>
       </c>
       <c r="G17" t="n">
-        <v>13.1</v>
+        <v>35.4</v>
       </c>
       <c r="H17" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I17" t="n">
-        <v>3890</v>
+        <v>7570</v>
       </c>
       <c r="J17" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="K17" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
-        <v>3405</v>
+        <v>9300</v>
       </c>
       <c r="M17" t="n">
-        <v>24.1</v>
+        <v>32.4</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,37 +1799,37 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>830</v>
+        <v>740</v>
       </c>
       <c r="S17" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>725</v>
+        <v>945</v>
       </c>
       <c r="V17" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="AA17" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28245</v>
+        <v>30690</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>5990</v>
+        <v>12750</v>
       </c>
       <c r="G18" t="n">
-        <v>21.2</v>
+        <v>41.5</v>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I18" t="n">
-        <v>6735</v>
+        <v>8275</v>
       </c>
       <c r="J18" t="n">
-        <v>23.8</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>5585</v>
+        <v>6555</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>2590</v>
+        <v>1400</v>
       </c>
       <c r="S18" t="n">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>4215</v>
+        <v>1710</v>
       </c>
       <c r="V18" t="n">
-        <v>14.9</v>
+        <v>5.6</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -1934,35 +1934,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30505</v>
+        <v>35412</v>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F19" t="n">
-        <v>6765</v>
+        <v>15865</v>
       </c>
       <c r="G19" t="n">
-        <v>22.2</v>
+        <v>44.8</v>
       </c>
       <c r="H19" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I19" t="n">
-        <v>8220</v>
+        <v>8150</v>
       </c>
       <c r="J19" t="n">
-        <v>26.9</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
-        <v>6035</v>
+        <v>7022</v>
       </c>
       <c r="M19" t="n">
         <v>19.8</v>
@@ -1977,37 +1977,37 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2105</v>
+        <v>715</v>
       </c>
       <c r="S19" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>5035</v>
+        <v>3660</v>
       </c>
       <c r="V19" t="n">
-        <v>16.5</v>
+        <v>10.3</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA19" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18125</v>
+        <v>23065</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F20" t="n">
-        <v>1930</v>
+        <v>8890</v>
       </c>
       <c r="G20" t="n">
-        <v>10.6</v>
+        <v>38.5</v>
       </c>
       <c r="H20" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I20" t="n">
-        <v>4100</v>
+        <v>6870</v>
       </c>
       <c r="J20" t="n">
-        <v>22.6</v>
+        <v>29.8</v>
       </c>
       <c r="K20" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>4305</v>
+        <v>3885</v>
       </c>
       <c r="M20" t="n">
-        <v>23.8</v>
+        <v>16.8</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1545</v>
+        <v>690</v>
       </c>
       <c r="S20" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>2395</v>
+        <v>2730</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="AA20" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -2112,38 +2112,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13105</v>
+        <v>20245</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F21" t="n">
-        <v>1745</v>
+        <v>9085</v>
       </c>
       <c r="G21" t="n">
-        <v>13.3</v>
+        <v>44.9</v>
       </c>
       <c r="H21" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I21" t="n">
-        <v>3655</v>
+        <v>6237</v>
       </c>
       <c r="J21" t="n">
-        <v>27.9</v>
+        <v>30.8</v>
       </c>
       <c r="K21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>2345</v>
+        <v>3088</v>
       </c>
       <c r="M21" t="n">
-        <v>17.9</v>
+        <v>15.3</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,37 +2155,37 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="n">
-        <v>1240</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="T21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>1665</v>
+        <v>815</v>
       </c>
       <c r="V21" t="n">
-        <v>12.7</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2455</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AA21" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -2201,80 +2201,80 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13185</v>
+        <v>22880</v>
       </c>
       <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9785</v>
+      </c>
+      <c r="G22" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J22" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K22" t="n">
         <v>19</v>
       </c>
-      <c r="F22" t="n">
-        <v>2375</v>
-      </c>
-      <c r="G22" t="n">
-        <v>18</v>
-      </c>
-      <c r="H22" t="n">
-        <v>28</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2885</v>
-      </c>
-      <c r="J22" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>30</v>
-      </c>
       <c r="L22" t="n">
-        <v>2815</v>
+        <v>3655</v>
       </c>
       <c r="M22" t="n">
-        <v>21.4</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
-        <v>1430</v>
+        <v>1060</v>
       </c>
       <c r="V22" t="n">
-        <v>10.8</v>
+        <v>4.6</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2645</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="AA22" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -2290,80 +2290,80 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12445</v>
+        <v>25663</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F23" t="n">
-        <v>2215</v>
+        <v>10640</v>
       </c>
       <c r="G23" t="n">
-        <v>17.8</v>
+        <v>41.5</v>
       </c>
       <c r="H23" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="n">
-        <v>3820</v>
+        <v>6939</v>
       </c>
       <c r="J23" t="n">
-        <v>30.7</v>
+        <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L23" t="n">
-        <v>2730</v>
+        <v>5814</v>
       </c>
       <c r="M23" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>980</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1290</v>
+      </c>
+      <c r="V23" t="n">
         <v>5</v>
       </c>
-      <c r="R23" t="n">
-        <v>1140</v>
-      </c>
-      <c r="S23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>485</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3.9</v>
-      </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="AA23" t="n">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
@@ -2379,80 +2379,80 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15270</v>
+        <v>22980</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
-        <v>1895</v>
+        <v>7725</v>
       </c>
       <c r="G24" t="n">
-        <v>12.4</v>
+        <v>33.6</v>
       </c>
       <c r="H24" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I24" t="n">
-        <v>4445</v>
+        <v>8190</v>
       </c>
       <c r="J24" t="n">
-        <v>29.1</v>
+        <v>35.6</v>
       </c>
       <c r="K24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L24" t="n">
-        <v>2740</v>
+        <v>4140</v>
       </c>
       <c r="M24" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>995</v>
+        <v>1710</v>
       </c>
       <c r="S24" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>695</v>
+        <v>1215</v>
       </c>
       <c r="V24" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4415</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -2468,38 +2468,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25075</v>
+        <v>28493</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F25" t="n">
-        <v>5905</v>
+        <v>11590</v>
       </c>
       <c r="G25" t="n">
-        <v>23.5</v>
+        <v>40.7</v>
       </c>
       <c r="H25" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I25" t="n">
-        <v>6670</v>
+        <v>6830</v>
       </c>
       <c r="J25" t="n">
-        <v>26.6</v>
+        <v>24</v>
       </c>
       <c r="K25" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
-        <v>5085</v>
+        <v>3763</v>
       </c>
       <c r="M25" t="n">
-        <v>20.3</v>
+        <v>13.2</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1445</v>
+        <v>4340</v>
       </c>
       <c r="S25" t="n">
-        <v>5.8</v>
+        <v>15.2</v>
       </c>
       <c r="T25" t="n">
         <v>11</v>
       </c>
       <c r="U25" t="n">
-        <v>1775</v>
+        <v>1970</v>
       </c>
       <c r="V25" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4195</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AA25" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -2557,38 +2557,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33065</v>
+        <v>29406</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>4420</v>
+        <v>11575</v>
       </c>
       <c r="G26" t="n">
-        <v>13.4</v>
+        <v>39.4</v>
       </c>
       <c r="H26" t="n">
         <v>57</v>
       </c>
       <c r="I26" t="n">
-        <v>7860</v>
+        <v>7881</v>
       </c>
       <c r="J26" t="n">
-        <v>23.8</v>
+        <v>26.8</v>
       </c>
       <c r="K26" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>8750</v>
+        <v>5615</v>
       </c>
       <c r="M26" t="n">
-        <v>26.5</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,37 +2600,37 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>3620</v>
+        <v>2550</v>
       </c>
       <c r="S26" t="n">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T26" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>4145</v>
+        <v>1785</v>
       </c>
       <c r="V26" t="n">
-        <v>12.5</v>
+        <v>6.1</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="AA26" t="n">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -2646,38 +2646,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17370</v>
+        <v>23225</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
-        <v>1915</v>
+        <v>7930</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>34.1</v>
       </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I27" t="n">
-        <v>6370</v>
+        <v>9385</v>
       </c>
       <c r="J27" t="n">
-        <v>36.7</v>
+        <v>40.4</v>
       </c>
       <c r="K27" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>2640</v>
+        <v>4025</v>
       </c>
       <c r="M27" t="n">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,37 +2689,37 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>775</v>
+        <v>630</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>1945</v>
+        <v>1255</v>
       </c>
       <c r="V27" t="n">
-        <v>11.2</v>
+        <v>5.4</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>3725</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AA27" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
@@ -2735,80 +2735,80 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15920</v>
+        <v>26465</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>1942</v>
+        <v>8650</v>
       </c>
       <c r="G28" t="n">
-        <v>12.2</v>
+        <v>32.7</v>
       </c>
       <c r="H28" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I28" t="n">
-        <v>3533</v>
+        <v>7495</v>
       </c>
       <c r="J28" t="n">
-        <v>22.2</v>
+        <v>28.3</v>
       </c>
       <c r="K28" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>3140</v>
+        <v>7895</v>
       </c>
       <c r="M28" t="n">
-        <v>19.7</v>
+        <v>29.8</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>1830</v>
+        <v>1730</v>
       </c>
       <c r="S28" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="T28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1335</v>
+        <v>695</v>
       </c>
       <c r="V28" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>4090</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="AA28" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -2824,38 +2824,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13600</v>
+        <v>23215</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
-        <v>1695</v>
+        <v>6190</v>
       </c>
       <c r="G29" t="n">
-        <v>12.5</v>
+        <v>26.7</v>
       </c>
       <c r="H29" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I29" t="n">
-        <v>3365</v>
+        <v>11853</v>
       </c>
       <c r="J29" t="n">
-        <v>24.7</v>
+        <v>51.1</v>
       </c>
       <c r="K29" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>4255</v>
+        <v>3882</v>
       </c>
       <c r="M29" t="n">
-        <v>31.3</v>
+        <v>16.7</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,37 +2867,37 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>950</v>
+        <v>655</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>395</v>
+        <v>635</v>
       </c>
       <c r="V29" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="AA29" t="n">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -2913,38 +2913,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14005</v>
+        <v>22140</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F30" t="n">
-        <v>1410</v>
+        <v>7765</v>
       </c>
       <c r="G30" t="n">
-        <v>10.1</v>
+        <v>35.1</v>
       </c>
       <c r="H30" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I30" t="n">
-        <v>3220</v>
+        <v>7167</v>
       </c>
       <c r="J30" t="n">
-        <v>23</v>
+        <v>32.4</v>
       </c>
       <c r="K30" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>3555</v>
+        <v>5943</v>
       </c>
       <c r="M30" t="n">
-        <v>25.4</v>
+        <v>26.8</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,37 +2956,37 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="S30" t="n">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1580</v>
+        <v>725</v>
       </c>
       <c r="V30" t="n">
-        <v>11.3</v>
+        <v>3.3</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>3415</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AA30" t="n">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31">
@@ -3002,38 +3002,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12250</v>
+        <v>22075</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>2070</v>
+        <v>8220</v>
       </c>
       <c r="G31" t="n">
-        <v>16.9</v>
+        <v>37.2</v>
       </c>
       <c r="H31" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I31" t="n">
-        <v>2475</v>
+        <v>6410</v>
       </c>
       <c r="J31" t="n">
-        <v>20.2</v>
+        <v>29</v>
       </c>
       <c r="K31" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L31" t="n">
-        <v>3245</v>
+        <v>5050</v>
       </c>
       <c r="M31" t="n">
-        <v>26.5</v>
+        <v>22.9</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,37 +3045,37 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>760</v>
+        <v>465</v>
       </c>
       <c r="S31" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1350</v>
+        <v>1930</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="AA31" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32">
@@ -3091,80 +3091,80 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25045</v>
+        <v>27999</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F32" t="n">
-        <v>4560</v>
+        <v>12010</v>
       </c>
       <c r="G32" t="n">
-        <v>18.2</v>
+        <v>42.9</v>
       </c>
       <c r="H32" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I32" t="n">
-        <v>6815</v>
+        <v>8845</v>
       </c>
       <c r="J32" t="n">
-        <v>27.2</v>
+        <v>31.6</v>
       </c>
       <c r="K32" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>4670</v>
+        <v>3944</v>
       </c>
       <c r="M32" t="n">
-        <v>18.6</v>
+        <v>14.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1945</v>
+        <v>1980</v>
       </c>
       <c r="S32" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>3200</v>
+        <v>1220</v>
       </c>
       <c r="V32" t="n">
-        <v>12.8</v>
+        <v>4.4</v>
       </c>
       <c r="W32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3755</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AA32" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -3180,38 +3180,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29530</v>
+        <v>34940</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F33" t="n">
-        <v>4335</v>
+        <v>15490</v>
       </c>
       <c r="G33" t="n">
-        <v>14.7</v>
+        <v>44.3</v>
       </c>
       <c r="H33" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I33" t="n">
-        <v>6725</v>
+        <v>8445</v>
       </c>
       <c r="J33" t="n">
-        <v>22.8</v>
+        <v>24.2</v>
       </c>
       <c r="K33" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>6860</v>
+        <v>6490</v>
       </c>
       <c r="M33" t="n">
-        <v>23.2</v>
+        <v>18.6</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3223,37 +3223,37 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>3615</v>
+        <v>2745</v>
       </c>
       <c r="S33" t="n">
-        <v>12.2</v>
+        <v>7.9</v>
       </c>
       <c r="T33" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>5400</v>
+        <v>1770</v>
       </c>
       <c r="V33" t="n">
-        <v>18.3</v>
+        <v>5.1</v>
       </c>
       <c r="W33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>2595</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AA33" t="n">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>606370</v>
+        <v>810701</v>
       </c>
       <c r="E34" t="n">
-        <v>691</v>
+        <v>2094</v>
       </c>
       <c r="F34" t="n">
-        <v>100364</v>
+        <v>314585</v>
       </c>
       <c r="G34" t="n">
-        <v>16.6</v>
+        <v>38.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1388</v>
+        <v>2221</v>
       </c>
       <c r="I34" t="n">
-        <v>154908</v>
+        <v>247035</v>
       </c>
       <c r="J34" t="n">
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1131</v>
+        <v>485</v>
       </c>
       <c r="L34" t="n">
-        <v>137370</v>
+        <v>162841</v>
       </c>
       <c r="M34" t="n">
-        <v>22.7</v>
+        <v>20.1</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1140</v>
+        <v>7740</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="R34" t="n">
-        <v>49015</v>
+        <v>35945</v>
       </c>
       <c r="S34" t="n">
-        <v>8.1</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="U34" t="n">
-        <v>66770</v>
+        <v>42555</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>5.2</v>
       </c>
       <c r="W34" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96803</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>4085</v>
+        <v>4934</v>
       </c>
       <c r="AA34" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
